--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:39:42-06:00</t>
+    <t>2022-01-16T23:55:54-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-16T23:55:54-06:00</t>
+    <t>2022-01-17T00:51:16-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-17T10:37:50-06:00</t>
+    <t>2022-01-18T09:56:03-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T09:56:03-06:00</t>
+    <t>2022-01-18T10:02:13-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:02:13-06:00</t>
+    <t>2022-01-18T10:08:08-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-02-02T16:42:41-06:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -28,7 +28,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://consent-engine-ig.awatson.mitre.org/ValueSet/ConsentExchangeRelations</t>
+    <t>https://gitlab.mitre.org/awatson/us-state-profiles/ValueSet/ConsentExchangeRelations</t>
   </si>
   <si>
     <t>Version</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-18T10:08:08-06:00</t>
+    <t>2022-07-03T23:04:30-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
+++ b/temp/pages/ValueSet-ConsentExchangeRelations.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T10:19:56-05:00</t>
+    <t>2022-07-04T11:58:27-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
